--- a/recall_instructions.xlsx
+++ b/recall_instructions.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">When you are finished recalling one story, to move onto the next one hit ‘return’. </t>
   </si>
   <si>
-    <t xml:space="preserve">There is no time limit for your responses. </t>
+    <t xml:space="preserve">There is a 5 minute time limit to make your response. </t>
   </si>
 </sst>
 </file>
@@ -43,7 +43,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1320,7 +1320,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1379,7 +1385,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="44.05" customHeight="1">
+    <row r="6" ht="56.05" customHeight="1">
       <c r="A6" t="s" s="7">
         <v>5</v>
       </c>

--- a/recall_instructions.xlsx
+++ b/recall_instructions.xlsx
@@ -12,24 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>instructText</t>
   </si>
   <si>
-    <t>The next task in the experiment is to recall each story to the best of your ability.</t>
+    <t>In this next part of the experiment, please recall each story to the best of your ability.</t>
   </si>
   <si>
     <t>You will be presented with the story title, names, the images, and a blank text box for each story.</t>
   </si>
   <si>
-    <t xml:space="preserve">Describe the story with as many details as you can remember in the space provided. </t>
+    <t xml:space="preserve">Describe the story indicated with as many details as you can remember in the space provided. </t>
   </si>
   <si>
-    <t xml:space="preserve">When you are finished recalling one story, to move onto the next one hit ‘return’. </t>
+    <t xml:space="preserve">When you are finished recalling one story, to move onto the next one, press the ‘return’ key. </t>
   </si>
   <si>
     <t xml:space="preserve">There is a 5 minute time limit to make your response. </t>
+  </si>
+  <si>
+    <t>Please note that you will not be able to capitalize any letters except for the first letter of your answer. This will not effect the scoring of your recall answer.</t>
   </si>
 </sst>
 </file>
@@ -39,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -48,7 +51,12 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <b val="1"/>
@@ -57,7 +65,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +84,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -203,31 +217,31 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -251,6 +265,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -267,10 +282,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -299,14 +314,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -447,11 +462,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -460,34 +478,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -737,10 +755,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1031,7 +1049,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1058,7 +1076,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1314,9 +1332,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1363,7 +1379,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="68.05" customHeight="1">
+    <row r="4" ht="80.05" customHeight="1">
       <c r="A4" t="s" s="7">
         <v>3</v>
       </c>
@@ -1374,7 +1390,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="68.05" customHeight="1">
+    <row r="5" ht="80.05" customHeight="1">
       <c r="A5" t="s" s="7">
         <v>4</v>
       </c>
@@ -1397,7 +1413,9 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" t="s" s="7">
+        <v>6</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1544,7 +1562,7 @@
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>